--- a/Data/EC/NIT-8603500445.xlsx
+++ b/Data/EC/NIT-8603500445.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E38D25EB-A055-47A4-B15B-25A2AF1E1C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{872643B7-2E33-479F-824D-62D5AAC559EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BB11BB16-81EF-4D77-90CB-E0CA014193CA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{ACF64CFA-D653-4148-92B7-96223F5DA431}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,25 +71,25 @@
     <t>ENRIQUE MADRID PEÑA</t>
   </si>
   <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
     <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -503,7 +503,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABBFDAEE-1182-328A-4A8D-C085BFB16799}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD8303B1-3979-50FC-E376-4B0433016EB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -854,7 +854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D580538A-214A-4BD8-BC86-50CA877C0AC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8318BE60-6ED1-4C6E-B946-49B897B89E9F}">
   <dimension ref="B2:J28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1032,7 +1032,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>40000</v>
+        <v>34666</v>
       </c>
       <c r="G16" s="18">
         <v>1000000</v>
@@ -1170,7 +1170,7 @@
         <v>17</v>
       </c>
       <c r="F22" s="24">
-        <v>34666</v>
+        <v>40000</v>
       </c>
       <c r="G22" s="24">
         <v>1000000</v>
